--- a/Genesis.xlsx
+++ b/Genesis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\290678\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\290678\Desktop\Khal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF1A452-8A42-4021-8DD3-851341E7C430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FE3BA-D7C7-4321-9A55-91EDF97B3C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="459">
   <si>
     <t>GENESIS - ANTIFRAGILITY OPERATING SYSTEM</t>
   </si>
@@ -518,13 +518,6 @@
   </si>
   <si>
     <t>Edge: Uncap Upside Low Stakes, High Risk, +ve Asymmetri Bets, Dynamically risk Tail Risks, with low stakes, Endge, is the 10% speculative offensive, thesse are your intrests, you plan</t>
-  </si>
-  <si>
-    <t>Heuristics</t>
-  </si>
-  <si>
-    <t>Mastercraft:
-More of an Art than a Science, amalgamation of techniquies, methodolies, Tactics.The art and science of mastering each domain</t>
   </si>
   <si>
     <t>Laws of Physics</t>
@@ -1552,6 +1545,12 @@
   </si>
   <si>
     <t>Practice cold calls</t>
+  </si>
+  <si>
+    <t>Heuristics: in compe domw you don oper with determi frma work,a dn mode but heurit tha are good for 90% of the time, all techniq, metod ect must be redcued to heurists to win</t>
+  </si>
+  <si>
+    <t>Mastercraft:</t>
   </si>
 </sst>
 </file>
@@ -1852,46 +1851,6 @@
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1970,6 +1929,31 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1978,6 +1962,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2585,6 +2584,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0675-46AD-9293-6BC1D45EBABB}"/>
                 </c:ext>
@@ -2612,6 +2612,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0675-46AD-9293-6BC1D45EBABB}"/>
                 </c:ext>
@@ -2639,6 +2640,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0675-46AD-9293-6BC1D45EBABB}"/>
                 </c:ext>
@@ -3444,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3456,398 +3458,419 @@
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="I6" t="s">
+        <v>457</v>
+      </c>
+      <c r="J6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:10" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="43" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="A44:F53"/>
     <mergeCell ref="B34:F34"/>
@@ -3855,21 +3878,6 @@
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3881,7 +3889,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3896,946 +3904,952 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="3">
         <f ca="1">NOW()</f>
-        <v>46078.557981828701</v>
-      </c>
-      <c r="C4" s="16" t="s">
+        <v>46080.032040972219</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="2">
         <v>30</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" s="2" t="str">
         <f>D4&amp;" years, "&amp;ROUND((D4-INT(D4))*365,0)&amp;" days"</f>
         <v>30 years, 0 days</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="4">
         <f ca="1">DATE(YEAR(NOW())-D4,MONTH(NOW()),DAY(NOW()))</f>
-        <v>35120</v>
-      </c>
-      <c r="C5" s="16" t="s">
+        <v>35122</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="2">
         <v>80</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="2" t="str">
         <f>(D5-D4)&amp;" years"</f>
         <v>50 years</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="2">
         <f>ROUND(D4*365.25,0)</f>
         <v>10958</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="2">
         <f>ROUND((D5-D4)*365.25,0)</f>
         <v>18263</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="5">
         <f>D4/D5</f>
         <v>0.375</v>
       </c>
+      <c r="I6" t="s">
+        <v>457</v>
+      </c>
+      <c r="J6" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="7">
         <v>90</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="2">
         <f>COUNTA('Affairs '!B3:B8)/6*100</f>
         <v>100</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="2" t="str">
         <f>IF(C10&gt;=B10,"✓ ROBUST","⚠ FRAGILE")</f>
         <v>✓ ROBUST</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="2">
         <f>B10-C10</f>
         <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="2">
         <f>COUNTA(Intrests!A2:A10)/9*100</f>
         <v>100</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="2" t="str">
         <f>IF(C11&lt;=B11,"✓ BALANCED","⚠ OVEREXTENDED")</f>
         <v>⚠ OVEREXTENDED</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="2">
         <f>C11-B11</f>
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="7">
         <v>1.5</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="2">
         <v>1.2</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="2" t="str">
         <f>IF(C12&gt;=B12,"✓ ANTIFRAGILE","⚠ CONCAVE")</f>
         <v>⚠ CONCAVE</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="2">
         <f>B12-C12</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="7">
         <v>100</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="2">
         <v>75</v>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="2" t="str">
         <f>IF(C13&gt;=B13,"✓ HEDGED","🔴 EXPOSED")</f>
         <v>🔴 EXPOSED</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="2">
         <f>B13-C13</f>
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="2">
         <f t="shared" ref="D17:D22" si="0">C17*3</f>
         <v>27</v>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="2" t="str">
         <f t="shared" ref="E17:E22" si="1">IF(D17&gt;20,"🔴 CRITICAL",IF(D17&gt;10,"🟡 MEDIUM","🟢 LOW"))</f>
         <v>🔴 CRITICAL</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>🔴 CRITICAL</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="7">
         <v>6</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>🟡 MEDIUM</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="7">
         <v>8</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>🔴 CRITICAL</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>🔴 CRITICAL</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>🟡 MEDIUM</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="2">
         <f>COUNTA('Affairs '!B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="8">
         <f>C26/B26</f>
         <v>1</v>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="2" t="str">
         <f>IF(D26&gt;=1,"✓ COMPLETE",REPT("█",INT(D26*10))&amp;REPT("░",10-INT(D26*10)))</f>
         <v>✓ COMPLETE</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="7">
         <v>4</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="8">
         <f>C27/B27</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="2" t="str">
         <f>IF(D27&gt;=1,"✓ COMPLETE",REPT("█",INT(D27*10))&amp;REPT("░",10-INT(D27*10)))</f>
         <v>██████░░░░</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="8">
         <f>C28/B28</f>
         <v>0.2</v>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="2" t="str">
         <f>IF(D28&gt;=1,"✓ COMPLETE",REPT("█",INT(D28*10))&amp;REPT("░",10-INT(D28*10)))</f>
         <v>██░░░░░░░░</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="8">
         <f>C29/B29</f>
         <v>0.2</v>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="2" t="str">
         <f>IF(D29&gt;=1,"✓ COMPLETE",REPT("█",INT(D29*10))&amp;REPT("░",10-INT(D29*10)))</f>
         <v>██░░░░░░░░</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
+      <c r="A33" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="7">
         <v>10</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="7">
         <v>9</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="2">
         <f t="shared" ref="G33:G39" si="2">E33*F33</f>
         <v>90</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="7">
         <v>40</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="9">
         <f ca="1">TODAY()+7</f>
-        <v>46085</v>
-      </c>
-      <c r="J33" s="16" t="s">
+        <v>46087</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
+      <c r="A34" s="2">
         <v>2</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="7">
         <v>9</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="7">
         <v>8</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="2">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="7">
         <v>16</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="9">
         <f ca="1">TODAY()+14</f>
-        <v>46092</v>
-      </c>
-      <c r="J34" s="16" t="s">
+        <v>46094</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
+      <c r="A35" s="2">
         <v>3</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="7">
         <v>8</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="7">
         <v>7</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="7">
         <v>24</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="9">
         <f ca="1">TODAY()+30</f>
-        <v>46108</v>
-      </c>
-      <c r="J35" s="16" t="s">
+        <v>46110</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
+      <c r="A36" s="2">
         <v>4</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="7">
         <v>7</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="7">
         <v>6</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="7">
         <v>2</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="9">
         <f ca="1">TODAY()+1</f>
-        <v>46079</v>
-      </c>
-      <c r="J36" s="16" t="s">
+        <v>46081</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16">
+      <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="7">
         <v>3</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="7">
         <v>9</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="7">
         <v>4</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="9">
         <f ca="1">TODAY()+3</f>
-        <v>46081</v>
-      </c>
-      <c r="J37" s="16" t="s">
+        <v>46083</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16">
+      <c r="A38" s="2">
         <v>6</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="7">
         <v>4</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="7">
         <v>5</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="7">
         <v>12</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="9">
         <f ca="1">TODAY()+21</f>
-        <v>46099</v>
-      </c>
-      <c r="J38" s="16" t="s">
+        <v>46101</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16">
+      <c r="A39" s="2">
         <v>7</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="7">
         <v>6</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="7">
         <v>5</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="7">
         <v>8</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="9">
         <f ca="1">TODAY()+10</f>
-        <v>46088</v>
-      </c>
-      <c r="J39" s="16" t="s">
+        <v>46090</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="7">
         <v>56</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="8">
         <f t="shared" ref="C43:C48" si="3">B43/168</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="8">
         <v>33</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="8">
         <f t="shared" ref="E43:E48" si="4">C43-D43</f>
         <v>-32.666666666666664</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="7">
         <v>50</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="8">
         <f t="shared" si="3"/>
         <v>0.29761904761904762</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="8">
         <v>30</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="8">
         <f t="shared" si="4"/>
         <v>-29.702380952380953</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="7">
         <v>15</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="8">
         <f t="shared" si="3"/>
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="8">
         <v>9</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="8">
         <f t="shared" si="4"/>
         <v>-8.9107142857142865</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="7">
         <v>10</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="8">
         <f t="shared" si="3"/>
         <v>5.9523809523809521E-2</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="8">
         <v>6</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="8">
         <f t="shared" si="4"/>
         <v>-5.9404761904761907</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="7">
         <v>20</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="8">
         <f t="shared" si="3"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="8">
         <v>12</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="8">
         <f t="shared" si="4"/>
         <v>-11.880952380952381</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="7">
         <v>17</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="8">
         <f t="shared" si="3"/>
         <v>0.10119047619047619</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="8">
         <v>10</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="8">
         <f t="shared" si="4"/>
         <v>-9.8988095238095237</v>
       </c>
@@ -4861,10 +4875,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:F1"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4880,560 +4894,560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:86" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:86" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="26"/>
-      <c r="CH2" s="26"/>
-    </row>
-    <row r="3" spans="1:86" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+    </row>
+    <row r="3" spans="1:86" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="26"/>
-      <c r="BP3" s="26"/>
-      <c r="BQ3" s="26"/>
-      <c r="BR3" s="26"/>
-      <c r="BS3" s="26"/>
-      <c r="BT3" s="26"/>
-      <c r="BU3" s="26"/>
-      <c r="BV3" s="26"/>
-      <c r="BW3" s="26"/>
-      <c r="BX3" s="26"/>
-      <c r="BY3" s="26"/>
-      <c r="BZ3" s="26"/>
-      <c r="CA3" s="26"/>
-      <c r="CB3" s="26"/>
-      <c r="CC3" s="26"/>
-      <c r="CD3" s="26"/>
-      <c r="CE3" s="26"/>
-      <c r="CF3" s="26"/>
-      <c r="CG3" s="26"/>
-      <c r="CH3" s="26"/>
-    </row>
-    <row r="4" spans="1:86" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
+      <c r="J3" s="49"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
+      <c r="CG3" s="12"/>
+      <c r="CH3" s="12"/>
+    </row>
+    <row r="4" spans="1:86" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26"/>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="26"/>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="26"/>
-      <c r="BR4" s="26"/>
-      <c r="BS4" s="26"/>
-      <c r="BT4" s="26"/>
-      <c r="BU4" s="26"/>
-      <c r="BV4" s="26"/>
-      <c r="BW4" s="26"/>
-      <c r="BX4" s="26"/>
-      <c r="BY4" s="26"/>
-      <c r="BZ4" s="26"/>
-      <c r="CA4" s="26"/>
-      <c r="CB4" s="26"/>
-      <c r="CC4" s="26"/>
-      <c r="CD4" s="26"/>
-      <c r="CE4" s="26"/>
-      <c r="CF4" s="26"/>
-      <c r="CG4" s="26"/>
-      <c r="CH4" s="26"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12"/>
+      <c r="CE4" s="12"/>
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="12"/>
     </row>
     <row r="5" spans="1:86" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="49"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:86" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="J6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="B7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="D7" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="E7" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="F7" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="G7" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="H7" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="I7" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="B8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="D8" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="37" t="s">
+      <c r="E8" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="F8" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="G8" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="H8" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="I8" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="B9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="D9" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="37" t="s">
+      <c r="E9" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="F9" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="I9" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37" t="s">
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:86" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="B10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="J9" s="37"/>
-    </row>
-    <row r="10" spans="1:86" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="D10" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="E10" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="F10" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="I10" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37" t="s">
+      <c r="J10" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="I10" s="37" t="s">
+    </row>
+    <row r="11" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="B11" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="C11" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="D11" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="E11" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="F11" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="G11" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="H11" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="I11" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="J11" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="I11" s="37" t="s">
+    </row>
+    <row r="12" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="B12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="1:86" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="D12" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="37" t="s">
+      <c r="E12" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="F12" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="I12" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37" t="s">
+      <c r="J12" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="37" t="s">
+    </row>
+    <row r="13" spans="1:86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J13" s="38" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5454,8 +5468,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="246" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>204</v>
+      <c r="A1" s="25" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5472,29 +5486,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12" style="40"/>
+    <col min="1" max="16384" width="12" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="A1" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -5510,516 +5524,516 @@
       <c r="M3" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="D6" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="E6" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="F6" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="G6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="C7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="21">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="21">
-        <v>9</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="21">
-        <v>7</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="21">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="21">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="21">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="B16" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="C16" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="D16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="2" t="str">
         <f t="shared" ref="E16:E22" si="0">IF(ISNUMBER(C16),IF(ISNUMBER(D16),C16-D16,""),"")</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="C17" s="7" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="16" t="str">
+      <c r="D17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="D18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="C19" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="D19" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="C20" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="16" t="str">
+      <c r="D20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="16" t="str">
+      <c r="D21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="16" t="str">
+      <c r="D22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="20" t="s">
+    </row>
+    <row r="26" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="B26" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="C26" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B26" s="16" t="s">
+    </row>
+    <row r="27" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="16" t="s">
+    <row r="28" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="16" t="s">
+    <row r="29" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="16" t="s">
+    <row r="30" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="16" t="s">
+    <row r="31" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="16" t="s">
+    <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="16" t="s">
+    <row r="33" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="16" t="s">
+    <row r="34" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="2" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6056,26 +6070,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="A1" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -6092,853 +6106,853 @@
       <c r="N3" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="H6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="K6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="N6" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="20" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N6" s="20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="7">
         <v>10</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="7">
         <v>9</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="7">
         <v>0.1</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="2">
         <f t="shared" ref="H7:H16" si="0">E7*F7*G7</f>
         <v>9</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="7">
         <v>40</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="7">
         <v>15</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="9">
         <f ca="1">TODAY()+7</f>
-        <v>46085</v>
-      </c>
-      <c r="L7" s="16" t="s">
+        <v>46087</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="8">
         <v>0.35</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>302</v>
+      <c r="N7" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="7">
         <v>9</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="7">
         <v>8</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="7">
         <v>0.2</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="7">
         <v>16</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="9">
         <f ca="1">TODAY()+14</f>
-        <v>46092</v>
-      </c>
-      <c r="L8" s="16" t="s">
+        <v>46094</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>304</v>
+      <c r="N8" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="7">
         <v>8</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="7">
         <v>0.3</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="7">
         <v>24</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="9">
         <f ca="1">TODAY()+30</f>
-        <v>46108</v>
-      </c>
-      <c r="L9" s="16" t="s">
+        <v>46110</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>306</v>
+      <c r="N9" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="7">
         <v>7</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="7">
         <v>0.5</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="9">
         <f ca="1">TODAY()+1</f>
-        <v>46079</v>
-      </c>
-      <c r="L10" s="16" t="s">
+        <v>46081</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="7">
         <v>9</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="7">
         <v>5</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="7">
         <v>4</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="9">
         <f ca="1">TODAY()+3</f>
-        <v>46081</v>
-      </c>
-      <c r="L11" s="16" t="s">
+        <v>46083</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="7">
         <v>4</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="7">
         <v>12</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="9">
         <f ca="1">TODAY()+21</f>
-        <v>46099</v>
-      </c>
-      <c r="L12" s="16" t="s">
+        <v>46101</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="7">
         <v>6</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="7">
         <v>5</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="7">
         <v>0.4</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="7">
         <v>8</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="9">
         <f ca="1">TODAY()+10</f>
-        <v>46088</v>
-      </c>
-      <c r="L13" s="16" t="s">
+        <v>46090</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="7">
         <v>9</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="7">
         <v>0.2</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>12.600000000000001</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="7">
         <v>20</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="9">
         <f ca="1">TODAY()+60</f>
-        <v>46138</v>
-      </c>
-      <c r="L14" s="16" t="s">
+        <v>46140</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="7">
         <v>5</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="7">
         <v>4</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="7">
         <v>4</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="7">
         <v>200</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="7">
         <v>10</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="9">
         <f ca="1">TODAY()+180</f>
-        <v>46258</v>
-      </c>
-      <c r="L15" s="16" t="s">
+        <v>46260</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="8">
         <v>0.05</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="7">
         <v>10</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="7">
         <v>8</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="7">
         <v>0.1</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="7">
         <v>4</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="9">
         <f ca="1">TODAY()+5</f>
-        <v>46083</v>
-      </c>
-      <c r="L16" s="16" t="s">
+        <v>46085</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="8">
         <v>0</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="C19" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="D19" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="E19" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="F19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E19" s="20" t="s">
+    </row>
+    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="B20" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="C20" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <f ca="1">TODAY()</f>
+        <v>46080</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D20" s="21">
+      <c r="C21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="7">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9">
+        <f ca="1">TODAY()+2</f>
+        <v>46082</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9">
+        <f ca="1">TODAY()+5</f>
+        <v>46085</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9">
+        <f ca="1">TODAY()+7</f>
+        <v>46087</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>46081</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9">
+        <f ca="1">TODAY()+5</f>
+        <v>46085</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9">
+        <f ca="1">TODAY()+10</f>
+        <v>46090</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="23">
-        <f ca="1">TODAY()</f>
-        <v>46078</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D21" s="21">
-        <v>8</v>
-      </c>
-      <c r="E21" s="23">
-        <f ca="1">TODAY()+2</f>
-        <v>46080</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D22" s="21">
-        <v>4</v>
-      </c>
-      <c r="E22" s="23">
-        <f ca="1">TODAY()+5</f>
-        <v>46083</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="E27" s="9">
+        <f ca="1">TODAY()+11</f>
+        <v>46091</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D23" s="21">
-        <v>2</v>
-      </c>
-      <c r="E23" s="23">
-        <f ca="1">TODAY()+7</f>
-        <v>46085</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D24" s="21">
-        <v>2</v>
-      </c>
-      <c r="E24" s="23">
-        <f ca="1">TODAY()+1</f>
-        <v>46079</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" s="21">
-        <v>3</v>
-      </c>
-      <c r="E25" s="23">
-        <f ca="1">TODAY()+5</f>
-        <v>46083</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D26" s="21">
-        <v>8</v>
-      </c>
-      <c r="E26" s="23">
-        <f ca="1">TODAY()+10</f>
-        <v>46088</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+    </row>
+    <row r="30" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23">
-        <f ca="1">TODAY()+11</f>
-        <v>46089</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="C30" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="D30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="20" t="s">
+    </row>
+    <row r="31" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B31" s="21">
+      <c r="B31" s="7">
         <v>50</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="7">
         <v>35</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="2">
         <f>C31-B31</f>
         <v>-15</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="8">
         <f>B31/C31</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="B32" s="21">
+      <c r="A32" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32" s="7">
         <v>50</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="2">
         <f>C32-B32</f>
         <v>-50</v>
       </c>
-      <c r="E32" s="22" t="str">
+      <c r="E32" s="8" t="str">
         <f>IF(C32&gt;0,B32/C32,"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B33" s="21">
+      <c r="A33" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="7">
         <v>50</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="7">
         <v>0</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="2">
         <f>C33-B33</f>
         <v>-50</v>
       </c>
-      <c r="E33" s="22" t="str">
+      <c r="E33" s="8" t="str">
         <f>IF(C33&gt;0,B33/C33,"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B34" s="21">
+      <c r="A34" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="7">
         <v>50</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="2">
         <f>C34-B34</f>
         <v>-50</v>
       </c>
-      <c r="E34" s="22" t="str">
+      <c r="E34" s="8" t="str">
         <f>IF(C34&gt;0,B34/C34,"")</f>
         <v/>
       </c>
@@ -6966,132 +6980,132 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.1796875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="24" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="17.81640625" style="41"/>
+    <col min="1" max="1" width="60.1796875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="24" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="17.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="41" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="41" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="B3" s="27" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="C3" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="41" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C4" s="27" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="B5" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="27" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
-      <c r="B7" s="41" t="s">
-        <v>366</v>
+      <c r="B7" s="27" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
-      <c r="B8" s="41" t="s">
-        <v>367</v>
+      <c r="B8" s="27" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="27" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41" t="s">
+    <row r="15" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+      <c r="B15" s="29" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B16" s="27" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41" t="s">
+      <c r="C16" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="D16" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="C16" s="41" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="41" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -7124,46 +7138,46 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>383</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>385</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -7178,24 +7192,24 @@
       <c r="G3" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="30">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="45">
+      <c r="A4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="31">
         <v>7</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="31">
         <v>6</v>
       </c>
       <c r="F4">
@@ -7205,24 +7219,24 @@
       <c r="G4" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="45">
+      <c r="A5" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="31">
         <v>6</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="31">
         <v>5</v>
       </c>
       <c r="F5">
@@ -7232,24 +7246,24 @@
       <c r="G5" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D6" s="45">
+      <c r="A6" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="31">
         <v>8</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="31">
         <v>7</v>
       </c>
       <c r="F6">
@@ -7259,24 +7273,24 @@
       <c r="G6" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="45">
+      <c r="A7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="31">
         <v>10</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="31">
         <v>8</v>
       </c>
       <c r="F7">
@@ -7286,24 +7300,24 @@
       <c r="G7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="D8" s="45">
+      <c r="A8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="31">
         <v>5</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="31">
         <v>4</v>
       </c>
       <c r="F8">
@@ -7313,13 +7327,13 @@
       <c r="G8" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -7330,191 +7344,191 @@
       <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>46081</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9">
+        <f ca="1">TODAY()+5</f>
+        <v>46085</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="21">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23">
-        <f ca="1">TODAY()+1</f>
-        <v>46079</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9">
+        <f ca="1">TODAY()+10</f>
+        <v>46090</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="F14" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C13" s="21">
-        <v>3</v>
-      </c>
-      <c r="D13" s="23">
-        <f ca="1">TODAY()+5</f>
+      <c r="B15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <f ca="1">TODAY()</f>
+        <v>46080</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <f ca="1">TODAY()</f>
+        <v>46080</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9">
+        <f ca="1">TODAY()+3</f>
         <v>46083</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9">
+        <f ca="1">TODAY()+7</f>
+        <v>46087</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C14" s="21">
-        <v>8</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="F18" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9">
         <f ca="1">TODAY()+10</f>
-        <v>46088</v>
-      </c>
-      <c r="E14" s="16" t="s">
+        <v>46090</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23">
-        <f ca="1">TODAY()</f>
-        <v>46078</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23">
-        <f ca="1">TODAY()</f>
-        <v>46078</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="C17" s="21">
-        <v>8</v>
-      </c>
-      <c r="D17" s="23">
-        <f ca="1">TODAY()+3</f>
-        <v>46081</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" s="21">
-        <v>4</v>
-      </c>
-      <c r="D18" s="23">
-        <f ca="1">TODAY()+7</f>
-        <v>46085</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C19" s="21">
-        <v>6</v>
-      </c>
-      <c r="D19" s="23">
-        <f ca="1">TODAY()+10</f>
-        <v>46088</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>336</v>
+      <c r="F19" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -7547,7 +7561,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -7560,304 +7574,304 @@
       <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="G3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="21">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21">
-        <v>9</v>
-      </c>
-      <c r="E3" s="21">
-        <v>5</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H10" si="0">E3</f>
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="G4" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="21">
-        <v>2</v>
-      </c>
-      <c r="D4" s="21">
-        <v>10</v>
-      </c>
-      <c r="E4" s="21">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="G5" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="21">
-        <v>4</v>
-      </c>
-      <c r="D5" s="21">
-        <v>5</v>
-      </c>
-      <c r="E5" s="21">
-        <v>3</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="G6" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="21">
-        <v>3</v>
-      </c>
-      <c r="D6" s="21">
-        <v>8</v>
-      </c>
-      <c r="E6" s="21">
-        <v>8</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="G7" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C7" s="21">
-        <v>5</v>
-      </c>
-      <c r="D7" s="21">
-        <v>7</v>
-      </c>
-      <c r="E7" s="21">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="G8" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="21">
-        <v>2</v>
-      </c>
-      <c r="D8" s="21">
-        <v>3</v>
-      </c>
-      <c r="E8" s="21">
-        <v>5</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="21">
-        <v>5</v>
-      </c>
-      <c r="D9" s="21">
-        <v>4</v>
-      </c>
-      <c r="E9" s="21">
-        <v>10</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="G10" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="21">
-        <v>3</v>
-      </c>
-      <c r="D10" s="21">
-        <v>6</v>
-      </c>
-      <c r="E10" s="21">
-        <v>6</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>445</v>
+      <c r="J10" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="53" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -7870,170 +7884,170 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>46081</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9">
+        <f ca="1">TODAY()+2</f>
+        <v>46082</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="21">
-        <v>2</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <f ca="1">TODAY()+7</f>
+        <v>46087</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <f ca="1">TODAY()</f>
+        <v>46080</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32">
         <f ca="1">TODAY()+1</f>
-        <v>46079</v>
-      </c>
-      <c r="E14" s="16" t="s">
+        <v>46081</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" s="21">
-        <v>4</v>
-      </c>
-      <c r="D15" s="23">
-        <f ca="1">TODAY()+2</f>
-        <v>46080</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="F18" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="7">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9">
+        <f ca="1">TODAY()+14</f>
+        <v>46094</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="32">
+        <f ca="1">TODAY()+1</f>
+        <v>46081</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23">
-        <f ca="1">TODAY()+7</f>
-        <v>46085</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="D17" s="23">
-        <f ca="1">TODAY()</f>
-        <v>46078</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="C18" s="21">
-        <v>1</v>
-      </c>
-      <c r="D18" s="46">
-        <f ca="1">TODAY()+1</f>
-        <v>46079</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="C19" s="21">
-        <v>20</v>
-      </c>
-      <c r="D19" s="23">
-        <f ca="1">TODAY()+14</f>
-        <v>46092</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="C20" s="21">
-        <v>5</v>
-      </c>
-      <c r="D20" s="46">
-        <f ca="1">TODAY()+1</f>
-        <v>46079</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>336</v>
+      <c r="F20" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
